--- a/Plotting/result_data.xlsx
+++ b/Plotting/result_data.xlsx
@@ -698,86 +698,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240708160400_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240725101525_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240708174723_minC_highCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240725172955_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240711114305_minE_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_cluster\20240726031533_minE_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240708150034_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240725143944_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240708152152_minC_highCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240725151344_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240708161723_minE_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ethylene\20240725160130_minE_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240711112648_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240724180057_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240712085554_minC_highCO2tax-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240715153131_minE_refCO2tax-1\optimization_results.h5</t>
-        </is>
-      </c>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240724222357_minC_highCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240715174928_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240724180105_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240715192219_minC_highCO2tax-1\optimization_results.h5</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240724201319_minC_highCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_cluster\20240725004548_minE_refCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240716101104_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240725164722_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240716104043_minC_highCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240725172146_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240715182847_minE_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ethylene\20240725180844_minE_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240715183102_minC_refCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240724180252_minC_refCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240716103524_minC_highCO2tax-1\optimization_results.h5</t>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240725000524_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -792,69 +792,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4154905350.82576</v>
+        <v>4465246011.084392</v>
       </c>
       <c r="C6" t="n">
-        <v>4283362858.490036</v>
+        <v>4611514449.304827</v>
       </c>
       <c r="D6" t="n">
-        <v>6019253850.110762</v>
+        <v>6024513613.853969</v>
       </c>
       <c r="E6" t="n">
-        <v>3669445969.915401</v>
+        <v>3757565975.978029</v>
       </c>
       <c r="F6" t="n">
-        <v>3758380326.00346</v>
+        <v>3925765516.478703</v>
       </c>
       <c r="G6" t="n">
-        <v>4397890492.212132</v>
+        <v>4460608100.101728</v>
       </c>
       <c r="H6" t="n">
-        <v>1295463274.897079</v>
+        <v>1235191192.13401</v>
       </c>
       <c r="I6" t="n">
-        <v>1316890375.928744</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2076599664.877223</v>
-      </c>
+        <v>1261976253.916033</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4964909244.81248</v>
+        <v>4992757168.112039</v>
       </c>
       <c r="L6" t="n">
-        <v>5075270701.932204</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6474490157.089355</v>
-      </c>
+        <v>5187741770.394736</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>5797440481.707078</v>
+        <v>6215869259.786349</v>
       </c>
       <c r="O6" t="n">
-        <v>5797440481.707078</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>6413872541.984506</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7129262608.647352</v>
+      </c>
       <c r="Q6" t="n">
-        <v>5220720856.198616</v>
+        <v>5228685879.011268</v>
       </c>
       <c r="R6" t="n">
-        <v>5347883889.578894</v>
+        <v>5532856053.84246</v>
       </c>
       <c r="S6" t="n">
-        <v>5893166562.124799</v>
+        <v>5716770300.392656</v>
       </c>
       <c r="T6" t="n">
-        <v>1809622629.321446</v>
+        <v>1568327116.42288</v>
       </c>
       <c r="U6" t="n">
-        <v>1905727212.616206</v>
+        <v>1605523551.70668</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>7030343485.520061</v>
+        <v>6797012995.434148</v>
       </c>
       <c r="X6" t="n">
-        <v>7253611102.1951</v>
+        <v>7138379605.54914</v>
       </c>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -865,69 +863,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1304912.690023351</v>
+        <v>1493337.054130327</v>
       </c>
       <c r="C7" t="n">
-        <v>1260222.111662329</v>
+        <v>1427017.388260161</v>
       </c>
       <c r="D7" t="n">
-        <v>850932.3978042658</v>
+        <v>857776.1049985483</v>
       </c>
       <c r="E7" t="n">
-        <v>897460.1720889299</v>
+        <v>2165120.767306569</v>
       </c>
       <c r="F7" t="n">
-        <v>884579.9755316793</v>
+        <v>1659977.273175399</v>
       </c>
       <c r="G7" t="n">
-        <v>826526.8031801513</v>
+        <v>1600353.802630381</v>
       </c>
       <c r="H7" t="n">
-        <v>231270.4168406207</v>
+        <v>294802.2799749954</v>
       </c>
       <c r="I7" t="n">
-        <v>192414.2821804122</v>
-      </c>
-      <c r="J7" t="n">
-        <v>68100.71048045269</v>
-      </c>
+        <v>255972.3144009069</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1128730.588929551</v>
+        <v>2459923.047281564</v>
       </c>
       <c r="L7" t="n">
-        <v>1076994.257712092</v>
-      </c>
-      <c r="M7" t="n">
-        <v>894627.5136606039</v>
-      </c>
+        <v>1915949.587576306</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1613329.57921794</v>
+        <v>2258198.162070882</v>
       </c>
       <c r="O7" t="n">
-        <v>1613329.57921794</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>1903969.965052006</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1125612.34478325</v>
+      </c>
       <c r="Q7" t="n">
-        <v>3069715.724769132</v>
+        <v>3076088.595739267</v>
       </c>
       <c r="R7" t="n">
-        <v>1371427.321270447</v>
+        <v>2335385.568099567</v>
       </c>
       <c r="S7" t="n">
-        <v>1243349.646057266</v>
+        <v>2247963.664204291</v>
       </c>
       <c r="T7" t="n">
-        <v>972043.7134477916</v>
+        <v>400217.3333925375</v>
       </c>
       <c r="U7" t="n">
-        <v>959057.0062714885</v>
+        <v>342441.7445528568</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>4041759.438216924</v>
+        <v>3476305.929131804</v>
       </c>
       <c r="X7" t="n">
-        <v>2330484.327541935</v>
+        <v>2677827.312652424</v>
       </c>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -938,22 +934,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.16991182381731</v>
+        <v>39.34089721542723</v>
       </c>
       <c r="C8" t="n">
-        <v>37.16991182376854</v>
+        <v>39.53038371440459</v>
       </c>
       <c r="D8" t="n">
-        <v>41.37488856385106</v>
+        <v>43.06252361791346</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>149.9999999999996</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>92.23849962949454</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -961,33 +957,31 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>149.9999999999996</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>21.81488303668891</v>
+      </c>
       <c r="Q8" t="n">
-        <v>207.9999999999975</v>
+        <v>208</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>120.3262711864349</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>124.56592064303</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -997,36 +991,36 @@
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>207.9999999999975</v>
+        <v>208</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>120.3262711864349</v>
       </c>
       <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>size_NaphthaCracker_Electric</t>
+          <t>size_NaphthaCracker_CC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.8300881761828</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>112.830088176232</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>111.8306183142234</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>150.0000000000007</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>59.75320565264406</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1034,33 +1028,31 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
+        <v>150.0000000000007</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>217.0430576699229</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>217.0430576699229</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>194.2388485069146</v>
+      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>87.67372881355926</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>90.75497502159094</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1073,33 +1065,33 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>87.67372881355926</v>
       </c>
       <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size_NaphthaCracker_CC</t>
+          <t>size_NaphthaCracker_Electric</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>110.6591027845756</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>111.3233153870781</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3516002131321</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.0000000000003</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>149.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>151.9408887501302</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1107,33 +1099,31 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>150.0000000000003</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>149.9999999999995</v>
-      </c>
-      <c r="M10" t="n">
-        <v>151.9408887501302</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>207.9999999999965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+        <v>208.0000000000003</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>207.9999999999994</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.0281690140845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1146,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>207.9999999999994</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="inlineStr"/>
     </row>
@@ -1157,10 +1147,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.0000000001084</v>
+        <v>135.9939056898939</v>
       </c>
       <c r="C11" t="n">
-        <v>135</v>
+        <v>136.8000826938297</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1180,25 +1170,23 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>148.18635253447</v>
+        <v>216.3194412155215</v>
       </c>
       <c r="O11" t="n">
-        <v>148.18635253447</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>124.6796023164942</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
@@ -1236,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.67806114772567</v>
+        <v>33.51707778247204</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1248,30 +1236,28 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.89901618295559</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>96.40511217107104</v>
-      </c>
-      <c r="J12" t="n">
-        <v>97.63687050286478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>95.89901618295559</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.40511217107104</v>
-      </c>
-      <c r="M12" t="n">
-        <v>97.63687050286478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>68.69311330888533</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>68.69311330888533</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>85.63906570725666</v>
+      </c>
+      <c r="P12" t="n">
+        <v>60.79626618932933</v>
+      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
@@ -1321,30 +1307,28 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>88.97342184111709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>85.6395973315055</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>88.97342184111709</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+        <v>85.6395973315055</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
@@ -1355,17 +1339,17 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>136.3656590317265</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>145.3080623041417</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>136.3656590317265</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>145.3080623041417</v>
       </c>
       <c r="Y13" t="inlineStr"/>
     </row>
@@ -1382,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>186.1571667358171</v>
+        <v>189.5239768587589</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1394,30 +1378,28 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>70.58042431849371</v>
+        <v>79.77199886493713</v>
       </c>
       <c r="I14" t="n">
-        <v>70.54259531370749</v>
-      </c>
-      <c r="J14" t="n">
-        <v>119.7843886585555</v>
-      </c>
+        <v>80.16452420585502</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>70.58042431849371</v>
+        <v>79.77199886493713</v>
       </c>
       <c r="L14" t="n">
-        <v>70.54259531370749</v>
-      </c>
-      <c r="M14" t="n">
-        <v>119.7843886585555</v>
-      </c>
+        <v>80.16452420585502</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
+        <v>12.36911328122533</v>
+      </c>
+      <c r="P14" t="n">
+        <v>221.3185999693892</v>
+      </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
@@ -1428,17 +1410,17 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>252.7046748755089</v>
+        <v>121.4108271633708</v>
       </c>
       <c r="U14" t="n">
-        <v>252.704674875509</v>
+        <v>118.6778068973187</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>252.7046748755089</v>
+        <v>121.4108271633708</v>
       </c>
       <c r="X14" t="n">
-        <v>252.704674875509</v>
+        <v>118.6778068973187</v>
       </c>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -1449,69 +1431,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1664.225486992614</v>
+        <v>1788.530806330366</v>
       </c>
       <c r="C15" t="n">
-        <v>1715.678466109924</v>
+        <v>1847.117860011546</v>
       </c>
       <c r="D15" t="n">
-        <v>2410.980473488249</v>
+        <v>2413.087244193691</v>
       </c>
       <c r="E15" t="n">
-        <v>2792.576841640336</v>
+        <v>2859.639251124832</v>
       </c>
       <c r="F15" t="n">
-        <v>2860.259000002633</v>
+        <v>2987.64498970982</v>
       </c>
       <c r="G15" t="n">
-        <v>3346.948624210147</v>
+        <v>3394.678919407708</v>
       </c>
       <c r="H15" t="n">
-        <v>1095.436559189142</v>
+        <v>1044.470820339938</v>
       </c>
       <c r="I15" t="n">
-        <v>1113.555196963254</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1755.961157514987</v>
-      </c>
+        <v>1067.12012000341</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>1988.668286795033</v>
+        <v>1999.822626016198</v>
       </c>
       <c r="L15" t="n">
-        <v>2032.872988036612</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2593.322982091387</v>
-      </c>
+        <v>2077.922683006784</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1590.885274441045</v>
+        <v>1705.707010610497</v>
       </c>
       <c r="O15" t="n">
-        <v>1590.885274441045</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
+        <v>1760.041420240743</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1956.352796981294</v>
+      </c>
       <c r="Q15" t="n">
-        <v>2865.253367688914</v>
+        <v>2869.624757975098</v>
       </c>
       <c r="R15" t="n">
-        <v>2935.043406205487</v>
+        <v>3036.560444021371</v>
       </c>
       <c r="S15" t="n">
-        <v>3234.307254415173</v>
+        <v>3137.496871922559</v>
       </c>
       <c r="T15" t="n">
-        <v>993.1631044308954</v>
+        <v>860.7344992661573</v>
       </c>
       <c r="U15" t="n">
-        <v>1045.907541170643</v>
+        <v>881.1487704747761</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>1929.208236059904</v>
+        <v>1865.179628620628</v>
       </c>
       <c r="X15" t="n">
-        <v>1990.475473688065</v>
+        <v>1958.854607248074</v>
       </c>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1522,59 +1502,59 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>751.8283345639652</v>
+        <v>807.9843434375144</v>
       </c>
       <c r="C16" t="n">
-        <v>775.07266527544</v>
+        <v>834.4515543656013</v>
       </c>
       <c r="D16" t="n">
-        <v>1089.181392915992</v>
+        <v>1090.133144901021</v>
       </c>
       <c r="E16" t="n">
-        <v>844.7544945962014</v>
+        <v>865.0408734652615</v>
       </c>
       <c r="F16" t="n">
-        <v>865.2283475007964</v>
+        <v>903.7626093872203</v>
       </c>
       <c r="G16" t="n">
-        <v>1012.451958823569</v>
+        <v>1026.890373120832</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>898.3981904778504</v>
+        <v>903.4372602105005</v>
       </c>
       <c r="L16" t="n">
-        <v>918.3680486335566</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1171.556206686598</v>
-      </c>
+        <v>938.7196400535656</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>738.9524691261668</v>
+        <v>792.2861738344344</v>
       </c>
       <c r="O16" t="n">
-        <v>738.9524691261668</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
+        <v>817.52403780856</v>
+      </c>
+      <c r="P16" t="n">
+        <v>908.7089767168391</v>
+      </c>
       <c r="Q16" t="n">
-        <v>866.7391437258964</v>
+        <v>868.0614892874673</v>
       </c>
       <c r="R16" t="n">
-        <v>887.8506303771599</v>
+        <v>918.5595343164647</v>
       </c>
       <c r="S16" t="n">
-        <v>978.3779444605899</v>
+        <v>949.0928037565741</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>896.1005626228347</v>
+        <v>866.3598274974894</v>
       </c>
       <c r="X16" t="n">
-        <v>924.5586653215198</v>
+        <v>909.8710459770323</v>
       </c>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1585,69 +1565,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.522675915254086</v>
+        <v>0.5981483033446795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5047753391261431</v>
+        <v>0.5715843099656177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3408364967572963</v>
+        <v>0.3435777076818666</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6829986088956849</v>
+        <v>1.647732699624482</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6731963284107149</v>
+        <v>1.263300816724048</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6290158319483647</v>
+        <v>1.217925268364065</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1955609816003896</v>
+        <v>0.2492831726492435</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1627044496705667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.05758558302084617</v>
-      </c>
+        <v>0.2164487691534812</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>0.4521071012294924</v>
+        <v>0.9853092394783162</v>
       </c>
       <c r="L17" t="n">
-        <v>0.431384385849592</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.358338345614277</v>
-      </c>
+        <v>0.7674235310327269</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>0.4427164502156711</v>
+        <v>0.6196759094196967</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4427164502156711</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
+        <v>0.5224715613617421</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3088811536220281</v>
+      </c>
       <c r="Q17" t="n">
-        <v>1.684731584106698</v>
+        <v>1.688229164328277</v>
       </c>
       <c r="R17" t="n">
-        <v>0.752671299432762</v>
+        <v>1.281714067494055</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6823792841462867</v>
+        <v>1.233734887713103</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5334802607173075</v>
+        <v>0.2196486067530171</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5263528529326311</v>
+        <v>0.1879400161095324</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>1.109105922412003</v>
+        <v>0.9539388855406471</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6395120761826965</v>
+        <v>0.7348270418017936</v>
       </c>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1658,59 +1636,59 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.236123389500716</v>
+        <v>0.270218697070037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2280366485853808</v>
+        <v>0.2582181820811466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1539758510601344</v>
+        <v>0.1552142169307548</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2066070791909446</v>
+        <v>0.4984391416364057</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2036418893442412</v>
+        <v>0.3821484970590245</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1902772891643803</v>
+        <v>0.3684223936801295</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>0.2042433141533902</v>
+        <v>0.4451220164198563</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1948816472918475</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.1618824634637891</v>
-      </c>
+        <v>0.3466902530643032</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.2056379672786803</v>
+        <v>0.2878341076383236</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2056379672786803</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
+        <v>0.2426835275423063</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1434726279779862</v>
+      </c>
       <c r="Q18" t="n">
-        <v>0.5096313041922761</v>
+        <v>0.5106893222093037</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2276830680784105</v>
+        <v>0.3877185054169516</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2064197334542517</v>
+        <v>0.3732048035332137</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>0.5151701213506807</v>
+        <v>0.443096372938266</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2970478357700817</v>
+        <v>0.3413208140422918</v>
       </c>
       <c r="Y18" t="inlineStr"/>
     </row>

--- a/Plotting/result_data.xlsx
+++ b/Plotting/result_data.xlsx
@@ -736,7 +736,11 @@
           <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240724222357_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Chemelot_ammonia\20240729110224_minE_refCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -780,7 +784,11 @@
           <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240725000524_minC_highCO2tax-1\optimization_results.h5</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Z:\PyHub\PyHub_results\CM\Cluster_integration\Zeeland_ammonia\20240728083459_minE_refCO2tax-1\optimization_results.h5</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -815,14 +823,18 @@
       <c r="I6" t="n">
         <v>1261976253.916033</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2041653738.263477</v>
+      </c>
       <c r="K6" t="n">
         <v>4992757168.112039</v>
       </c>
       <c r="L6" t="n">
         <v>5187741770.394736</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>6502261838.365206</v>
+      </c>
       <c r="N6" t="n">
         <v>6215869259.786349</v>
       </c>
@@ -847,14 +859,18 @@
       <c r="U6" t="n">
         <v>1605523551.70668</v>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>1957707683.492996</v>
+      </c>
       <c r="W6" t="n">
         <v>6797012995.434148</v>
       </c>
       <c r="X6" t="n">
         <v>7138379605.54914</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>7674477983.885653</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -886,14 +902,18 @@
       <c r="I7" t="n">
         <v>255972.3144009069</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>125542.5568637227</v>
+      </c>
       <c r="K7" t="n">
         <v>2459923.047281564</v>
       </c>
       <c r="L7" t="n">
         <v>1915949.587576306</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1725896.359494104</v>
+      </c>
       <c r="N7" t="n">
         <v>2258198.162070882</v>
       </c>
@@ -918,14 +938,18 @@
       <c r="U7" t="n">
         <v>342441.7445528568</v>
       </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>109966.0683733757</v>
+      </c>
       <c r="W7" t="n">
         <v>3476305.929131804</v>
       </c>
       <c r="X7" t="n">
         <v>2677827.312652424</v>
       </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>2357929.732577667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -957,14 +981,18 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="n">
         <v>149.9999999999996</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>92.23849962949454</v>
+      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -989,14 +1017,18 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
       <c r="W8" t="n">
         <v>208</v>
       </c>
       <c r="X8" t="n">
         <v>120.3262711864349</v>
       </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>124.56592064303</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1028,14 +1060,18 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>150.0000000000007</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>59.75320565264406</v>
+      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -1060,14 +1096,18 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>87.67372881355926</v>
       </c>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>90.75497502159094</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1099,14 +1139,18 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="n">
         <v>207.9999999999965</v>
       </c>
@@ -1131,14 +1175,18 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1170,14 +1218,18 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="n">
         <v>216.3194412155215</v>
       </c>
@@ -1202,14 +1254,18 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1241,14 +1297,18 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
@@ -1273,14 +1333,18 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1312,14 +1376,18 @@
       <c r="I13" t="n">
         <v>85.6395973315055</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>92.2445896369323</v>
+      </c>
       <c r="K13" t="n">
         <v>88.97342184111709</v>
       </c>
       <c r="L13" t="n">
         <v>85.6395973315055</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>92.2445896369323</v>
+      </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
@@ -1344,14 +1412,18 @@
       <c r="U13" t="n">
         <v>145.3080623041417</v>
       </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>193.8165912904538</v>
+      </c>
       <c r="W13" t="n">
         <v>136.3656590317265</v>
       </c>
       <c r="X13" t="n">
         <v>145.3080623041417</v>
       </c>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>193.8165912904538</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1383,14 +1455,18 @@
       <c r="I14" t="n">
         <v>80.16452420585502</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>79.3508479585341</v>
+      </c>
       <c r="K14" t="n">
         <v>79.77199886493713</v>
       </c>
       <c r="L14" t="n">
         <v>80.16452420585502</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>79.3508479585341</v>
+      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
@@ -1415,14 +1491,18 @@
       <c r="U14" t="n">
         <v>118.6778068973187</v>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>104.5211679849753</v>
+      </c>
       <c r="W14" t="n">
         <v>121.4108271633708</v>
       </c>
       <c r="X14" t="n">
         <v>118.6778068973187</v>
       </c>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>104.5211679849753</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1454,14 +1534,18 @@
       <c r="I15" t="n">
         <v>1067.12012000341</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1726.411075818939</v>
+      </c>
       <c r="K15" t="n">
         <v>1999.822626016198</v>
       </c>
       <c r="L15" t="n">
         <v>2077.922683006784</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2604.446782970923</v>
+      </c>
       <c r="N15" t="n">
         <v>1705.707010610497</v>
       </c>
@@ -1486,14 +1570,18 @@
       <c r="U15" t="n">
         <v>881.1487704747761</v>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>1074.43563591774</v>
+      </c>
       <c r="W15" t="n">
         <v>1865.179628620628</v>
       </c>
       <c r="X15" t="n">
         <v>1958.854607248074</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>2105.966253920149</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1528,7 +1616,9 @@
       <c r="L16" t="n">
         <v>938.7196400535656</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1176.58148045788</v>
+      </c>
       <c r="N16" t="n">
         <v>792.2861738344344</v>
       </c>
@@ -1556,7 +1646,9 @@
       <c r="X16" t="n">
         <v>909.8710459770323</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>978.2031352181885</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1588,14 +1680,18 @@
       <c r="I17" t="n">
         <v>0.2164487691534812</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.1061580896868956</v>
+      </c>
       <c r="K17" t="n">
         <v>0.9853092394783162</v>
       </c>
       <c r="L17" t="n">
         <v>0.7674235310327269</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0.6912987100433003</v>
+      </c>
       <c r="N17" t="n">
         <v>0.6196759094196967</v>
       </c>
@@ -1620,14 +1716,18 @@
       <c r="U17" t="n">
         <v>0.1879400161095324</v>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0.06035194303947999</v>
+      </c>
       <c r="W17" t="n">
         <v>0.9539388855406471</v>
       </c>
       <c r="X17" t="n">
         <v>0.7348270418017936</v>
       </c>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>0.6470434153762915</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1662,7 +1762,9 @@
       <c r="L18" t="n">
         <v>0.3466902530643032</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.3123002032598835</v>
+      </c>
       <c r="N18" t="n">
         <v>0.2878341076383236</v>
       </c>
@@ -1690,7 +1792,9 @@
       <c r="X18" t="n">
         <v>0.3413208140422918</v>
       </c>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>0.3005460777755519</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
